--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PeCatch-Result" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="GasSaver-Result" sheetId="4" r:id="rId3"/>
     <sheet name="python-solidity-optimizer-res" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>solmate</t>
   </si>
@@ -42,30 +42,6 @@
   </si>
   <si>
     <t>OpenZeppelin</t>
-  </si>
-  <si>
-    <t>and-in-if</t>
-  </si>
-  <si>
-    <t>im-return</t>
-  </si>
-  <si>
-    <t>sload</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>unchecked</t>
-  </si>
-  <si>
-    <t>mem-call</t>
-  </si>
-  <si>
-    <t>loop-invariant</t>
-  </si>
-  <si>
-    <t>alloc-in-loop</t>
   </si>
   <si>
     <t>total</t>
@@ -98,9 +74,6 @@
     <t>V2-Core</t>
   </si>
   <si>
-    <t>VRGDAs</t>
-  </si>
-  <si>
     <t>return-bomb</t>
   </si>
   <si>
@@ -129,6 +102,30 @@
   </si>
   <si>
     <t>state-data-arrangement</t>
+  </si>
+  <si>
+    <t>And-in-if</t>
+  </si>
+  <si>
+    <t>Ret-Local</t>
+  </si>
+  <si>
+    <t>Alloc-Loop</t>
+  </si>
+  <si>
+    <t>Loop-Inv</t>
+  </si>
+  <si>
+    <t>Bool-Field</t>
+  </si>
+  <si>
+    <t>Re-Sload</t>
+  </si>
+  <si>
+    <t>Calldata-Para</t>
+  </si>
+  <si>
+    <t>Non-Overflow</t>
   </si>
 </sst>
 </file>
@@ -190,11 +187,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1001"/>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,126 +480,126 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="4"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -671,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -795,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -857,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -919,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -981,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1097,7 +1094,7 @@
         <v>185</v>
       </c>
       <c r="T11" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1163,126 +1160,86 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>48</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>29</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>73</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>43</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>131</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>383</v>
-      </c>
-      <c r="T14" s="1">
-        <v>15</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -22976,28 +22933,6 @@
       <c r="S1000" s="1"/>
       <c r="T1000" s="1"/>
     </row>
-    <row r="1001" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="G1:H1"/>
@@ -23016,117 +22951,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:Q999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6"/>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="4"/>
+      <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -23184,7 +23119,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -23292,7 +23227,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -23347,7 +23282,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -23392,17 +23327,17 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" ref="P8:P14" si="1">SUM(B8,D8,F8,H8,J8,L8,N8)</f>
+        <f t="shared" ref="P8:P13" si="1">SUM(B8,D8,F8,H8,J8,L8,N8)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ref="Q8:Q14" si="2">SUM(C8,E8,G8,I8,K8,M8,O8)</f>
+        <f t="shared" ref="Q8:Q13" si="2">SUM(C8,E8,G8,I8,K8,M8,O8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -23457,7 +23392,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -23621,128 +23556,92 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B13" s="1">
+        <f>SUM(B4:B12)</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUM(C4:C12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
+        <f>SUM(D4:D12)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E4:E12)</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F4:F12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="G13" s="1">
+        <f>SUM(G4:G12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
+        <f>SUM(H4:H12)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <f>SUM(I4:I12)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <f>SUM(J4:J12)</f>
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <f>SUM(K4:K12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="L13" s="1">
+        <f>SUM(L4:L12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="M13" s="1">
+        <f>SUM(M4:M12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="N13" s="1">
+        <f>SUM(N4:N12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
       <c r="O13" s="1">
+        <f>SUM(O4:O12)</f>
         <v>0</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <f>SUM(B4:B13)</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <f>SUM(C4:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:I14" si="3">SUM(D4:D13)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <f>SUM(J4:J13)</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="1">
-        <f>SUM(K4:K13)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>SUM(L4:L13)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" ref="M14:O14" si="4">SUM(M4:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -23821,7 +23720,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -23840,7 +23739,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -23878,7 +23777,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -23973,7 +23872,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -42459,25 +42358,6 @@
       <c r="P999" s="1"/>
       <c r="Q999" s="1"/>
     </row>
-    <row r="1000" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
@@ -42493,10 +42373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K999"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42504,71 +42384,71 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="4"/>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -42607,7 +42487,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -42677,7 +42557,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -42712,7 +42592,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -42747,7 +42627,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -42782,7 +42662,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -42886,17 +42766,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
+      <c r="A13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -42905,55 +42785,33 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>63</v>
-      </c>
-      <c r="K14" s="1">
-        <v>6</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -43034,7 +42892,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -43047,7 +42905,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -43073,7 +42931,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -43138,7 +42996,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -55760,19 +55618,6 @@
       <c r="J999" s="1"/>
       <c r="K999" s="1"/>
     </row>
-    <row r="1000" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:I1"/>
@@ -55784,10 +55629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55795,10 +55640,10 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -55814,7 +55659,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -55836,7 +55681,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -55847,7 +55692,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -55858,7 +55703,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -55869,7 +55714,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -55901,24 +55746,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
+      <c r="A11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
         <v>12</v>
       </c>
     </row>
